--- a/config_debug/jika_config.xlsx
+++ b/config_debug/jika_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_0817\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="base" sheetId="5" r:id="rId1"/>
     <sheet name="help_info" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -94,39 +94,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>ls_icon_hb1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.98万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>com_icon_yb</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ls_icon_hb1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.98万福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤*3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_zh</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold8</t>
+    <t>com_icon_yb</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +652,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="15"/>
@@ -670,10 +670,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="15"/>
@@ -694,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="15"/>
@@ -715,7 +715,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="15"/>
@@ -778,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="15"/>
@@ -799,7 +799,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="15"/>
@@ -817,10 +817,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="15"/>
